--- a/Task Sheet 01-09-2023.xlsx
+++ b/Task Sheet 01-09-2023.xlsx
@@ -185,7 +185,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
